--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1050" windowWidth="12408" windowHeight="9258" activeTab="2"/>
+    <workbookView xWindow="5880" yWindow="1054" windowWidth="12411" windowHeight="9257" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="239">
   <si>
     <t>Name</t>
   </si>
@@ -728,6 +728,12 @@
   </si>
   <si>
     <t>IEX ('Key Stats')</t>
+  </si>
+  <si>
+    <t>IEX ('earnings')</t>
+  </si>
+  <si>
+    <t>IEX ('financials')</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -836,12 +842,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -926,11 +947,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,12 +968,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1271,16 +1295,16 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.578125" customWidth="1"/>
-    <col min="7" max="7" width="33.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.53515625" customWidth="1"/>
+    <col min="7" max="7" width="33.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1300,40 +1324,40 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="71"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="71"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="71"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="71"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="68"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="71"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1350,8 +1374,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="71"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1359,8 +1383,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="68" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1376,8 +1400,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="71"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1385,8 +1409,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="68"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="71"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1394,8 +1418,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1408,8 +1432,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="68"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="71"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1441,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1429,8 +1453,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="71"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1438,8 +1462,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="71"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1453,8 +1477,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="68"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="71"/>
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1465,8 +1489,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="68"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="71"/>
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1565,7 +1589,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1573,7 +1597,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1590,7 +1614,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -1604,7 +1628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -1628,35 +1652,35 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="71"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1670,8 +1694,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="71"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1685,8 +1709,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="71"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1697,41 +1721,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="71"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="69"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
+      <c r="H5" s="72"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="71"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="72"/>
       <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="68"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="71"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="72"/>
       <c r="E7" t="s">
         <v>11</v>
       </c>
@@ -1739,8 +1763,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="71"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1754,8 +1778,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="68" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1771,8 +1795,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="71"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1783,8 +1807,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="68"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="71"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1794,13 +1818,13 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="69"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="68" t="s">
+      <c r="H11" s="72"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1816,8 +1840,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="68"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="71"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1831,8 +1855,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1843,8 +1867,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="71"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1852,8 +1876,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="71"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1861,8 +1885,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="68"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="71"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1870,8 +1894,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="68"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="71"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1879,8 +1903,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="68" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="71" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -1890,8 +1914,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="68"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="71"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1899,78 +1923,78 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="68"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="71"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="68" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="68"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="71"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="71"/>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="68"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="71"/>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="68" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="71" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="68"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="71"/>
       <c r="B27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="68"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="71"/>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="68"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="71"/>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="68"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="71"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="68"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="71"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="68"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="71"/>
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1998,37 +2022,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.15234375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="69" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -2042,8 +2066,8 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="71"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2053,8 +2077,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="71"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2062,12 +2086,12 @@
         <v>108</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="70" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="71"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2103,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="71"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2088,13 +2112,13 @@
         <v>108</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="70" t="s">
         <v>236</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="68"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="71"/>
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -2106,16 +2130,16 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="71"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="68"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="71"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -2123,49 +2147,61 @@
         <v>141</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="70" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="75" t="s">
+      <c r="H9" s="77">
+        <v>0.48</v>
+      </c>
+      <c r="I9" s="77">
+        <v>-1.78</v>
+      </c>
+      <c r="J9" s="77">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K9" s="77">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="70" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="73"/>
+      <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="73"/>
+      <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="68" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
@@ -2177,12 +2213,12 @@
       <c r="D13" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="70" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -2190,12 +2226,12 @@
         <v>141</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="70" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="71"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2203,12 +2239,12 @@
         <v>141</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
+      <c r="E15" s="70" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="71"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2216,12 +2252,12 @@
         <v>108</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="70" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="68"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="71"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -2229,76 +2265,84 @@
         <v>141</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="76" t="s">
+      <c r="E17" s="70" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="68"/>
+      <c r="I17">
+        <f>AVERAGE(H9:K9)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="71"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="70" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="68"/>
+      <c r="I18">
+        <f>AVERAGE(I9:K9)</f>
+        <v>-0.14666666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="71"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="73"/>
+      <c r="B21" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76" t="s">
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="73"/>
+      <c r="B22" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="76"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76" t="s">
+      <c r="E22" s="70"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="73"/>
+      <c r="B23" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="76"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="68" t="s">
+      <c r="E23" s="70"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B24" t="s">
@@ -2307,16 +2351,16 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="68"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="71"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="71"/>
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -2324,8 +2368,8 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="68"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="71"/>
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -2333,104 +2377,104 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="75" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="70" t="s">
         <v>198</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="73"/>
+      <c r="B29" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="76"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76" t="s">
+      <c r="E29" s="70"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="73"/>
+      <c r="B30" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="70" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="73"/>
+      <c r="B31" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="70" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="75"/>
-      <c r="B32" s="76" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="73"/>
+      <c r="B32" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76" t="s">
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="73"/>
+      <c r="B33" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="75"/>
-      <c r="B34" s="76" t="s">
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="73"/>
+      <c r="B34" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="76"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="70"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
@@ -2457,35 +2501,35 @@
       <selection pane="topRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.83984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.41796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15625" style="5"/>
-    <col min="10" max="10" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.15625" style="8"/>
-    <col min="12" max="12" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.84375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.15234375" style="5"/>
+    <col min="10" max="10" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.15234375" style="8"/>
+    <col min="12" max="12" width="12.23046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="8" customWidth="1"/>
-    <col min="14" max="14" width="13.15625" customWidth="1"/>
-    <col min="15" max="15" width="16.26171875" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.15234375" customWidth="1"/>
+    <col min="15" max="15" width="16.23046875" style="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.15625" style="5"/>
-    <col min="20" max="20" width="9.15625" style="5"/>
-    <col min="21" max="21" width="9.15625" style="29"/>
-    <col min="22" max="22" width="15.68359375" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.26171875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.83984375" style="48" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.15625" style="52"/>
+    <col min="18" max="18" width="9.15234375" style="5"/>
+    <col min="20" max="20" width="9.15234375" style="5"/>
+    <col min="21" max="21" width="9.15234375" style="29"/>
+    <col min="22" max="22" width="15.69140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.23046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.15234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.84375" style="48" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.15234375" style="52"/>
     <col min="29" max="29" width="14" style="57" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.15625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.68359375" style="61" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.3671875" style="8" customWidth="1"/>
-    <col min="34" max="34" width="13.734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.15234375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.69140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.3828125" style="8" customWidth="1"/>
+    <col min="34" max="34" width="13.765625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
@@ -2547,21 +2591,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A3" s="71" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="F3" s="70" t="s">
+      <c r="D3" s="76"/>
+      <c r="F3" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="71"/>
+      <c r="G3" s="75"/>
       <c r="H3" t="s">
         <v>101</v>
       </c>
@@ -2611,19 +2655,19 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="68"/>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A4" s="71"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="F4" s="70" t="s">
+      <c r="D4" s="76"/>
+      <c r="F4" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="75"/>
       <c r="H4" t="s">
         <v>102</v>
       </c>
@@ -2689,8 +2733,8 @@
       <c r="AK4" s="14"/>
       <c r="AL4" s="14"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="68"/>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A5" s="71"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2752,8 +2796,8 @@
         <v>159.99</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="68"/>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A6" s="71"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2815,8 +2859,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="68"/>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A7" s="71"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2872,8 +2916,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="68"/>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A8" s="71"/>
       <c r="B8" t="s">
         <v>139</v>
       </c>
@@ -2882,8 +2926,8 @@
         <v>794506.86713999999</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="68"/>
+    <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="71"/>
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
@@ -2958,8 +3002,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A10" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3040,8 +3084,8 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="68"/>
+    <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="71"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3115,8 +3159,8 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="68"/>
+    <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="71"/>
       <c r="B12" s="25" t="s">
         <v>9</v>
       </c>
@@ -3202,8 +3246,8 @@
         <v>723</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="68" t="s">
+    <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -3283,8 +3327,8 @@
         <v>12.557490144546648</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3359,8 +3403,8 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A15" s="71"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -3432,8 +3476,8 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A16" s="71"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3495,8 +3539,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="68"/>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A17" s="71"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -3571,8 +3615,8 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="68"/>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A18" s="71"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -3622,8 +3666,8 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="68" t="s">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A19" s="71" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -3641,8 +3685,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="68"/>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A20" s="71"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -3650,8 +3694,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="68"/>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A21" s="71"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -3659,8 +3703,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="68"/>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A22" s="71"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3716,8 +3760,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="68" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A23" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B23" t="s">
@@ -3761,8 +3805,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A24" s="71"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3788,22 +3832,22 @@
       </c>
       <c r="U24" s="38"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="68"/>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A25" s="71"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="68" t="s">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A26" s="71" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="68"/>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A27" s="71"/>
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -3856,8 +3900,8 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="68"/>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A28" s="71"/>
       <c r="B28" t="s">
         <v>69</v>
       </c>
@@ -3898,8 +3942,8 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="68"/>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A29" s="71"/>
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -3955,8 +3999,8 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="68"/>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A30" s="71"/>
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -4016,8 +4060,8 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="68"/>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A31" s="71"/>
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -4073,8 +4117,8 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="68"/>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A32" s="71"/>
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -4130,13 +4174,13 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="68"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="71"/>
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="L35" s="10"/>
       <c r="M35" s="13"/>
       <c r="N35" s="10"/>
@@ -4144,7 +4188,7 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10">

--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="239">
   <si>
     <t>Name</t>
   </si>
@@ -950,6 +950,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,9 +970,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -1333,31 +1333,31 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="71"/>
+      <c r="A3" s="72"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
+      <c r="A4" s="72"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="72"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1401,7 +1401,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="71"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="72" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="71"/>
+      <c r="A13" s="72"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="72"/>
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="71"/>
+      <c r="A18" s="72"/>
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1660,27 +1660,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="72"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
+      <c r="A2" s="72"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="71"/>
+      <c r="A3" s="72"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
+      <c r="A4" s="72"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1722,40 +1722,40 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="72"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="72"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" t="s">
         <v>11</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="71"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
+      <c r="A11" s="72"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1818,13 +1818,13 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="73"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="72" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="71"/>
+      <c r="A13" s="72"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="72"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1868,7 +1868,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="71"/>
+      <c r="A18" s="72"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1904,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="72" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -1915,7 +1915,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1924,13 +1924,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="72" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -1938,25 +1938,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="71"/>
+      <c r="A23" s="72"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="71"/>
+      <c r="A24" s="72"/>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="71"/>
+      <c r="A25" s="72"/>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
@@ -1964,37 +1964,37 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="71"/>
+      <c r="A27" s="72"/>
       <c r="B27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="71"/>
+      <c r="A28" s="72"/>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="71"/>
+      <c r="A29" s="72"/>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="71"/>
+      <c r="A30" s="72"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="71"/>
+      <c r="A31" s="72"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="71"/>
+      <c r="A32" s="72"/>
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2052,7 +2052,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -2067,7 +2067,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="71"/>
+      <c r="A3" s="72"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
+      <c r="A4" s="72"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="72"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="71"/>
+      <c r="A9" s="72"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -2150,21 +2150,21 @@
       <c r="E9" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="71">
         <v>0.48</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="71">
         <v>-1.78</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="71">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="71">
         <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="70" t="s">
@@ -2179,7 +2179,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
@@ -2190,7 +2190,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
@@ -2201,7 +2201,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="72" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
@@ -2218,7 +2218,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="72"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2244,7 +2244,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="71"/>
+      <c r="A18" s="72"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="71"/>
+      <c r="A19" s="72"/>
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="74" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="70" t="s">
@@ -2307,7 +2307,7 @@
       <c r="E20" s="70"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="73"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="70" t="s">
         <v>18</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="E21" s="70"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="73"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="70" t="s">
         <v>19</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="E22" s="70"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="73"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="70" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2342,7 @@
       <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="72" t="s">
         <v>67</v>
       </c>
       <c r="B24" t="s">
@@ -2352,7 +2352,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="71"/>
+      <c r="A25" s="72"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="71"/>
+      <c r="A26" s="72"/>
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="71"/>
+      <c r="A27" s="72"/>
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="74" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="70" t="s">
@@ -2395,7 +2395,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="73"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="70" t="s">
         <v>69</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="E29" s="70"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
       <c r="B30" s="70" t="s">
         <v>26</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="73"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="70" t="s">
         <v>27</v>
       </c>
@@ -2433,12 +2433,10 @@
       <c r="D31" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="70" t="s">
-        <v>236</v>
-      </c>
+      <c r="E31" s="70"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="73"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="70" t="s">
         <v>28</v>
       </c>
@@ -2449,7 +2447,7 @@
       <c r="E32" s="70"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="73"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="70" t="s">
         <v>29</v>
       </c>
@@ -2460,7 +2458,7 @@
       <c r="E33" s="70"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="73"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="70" t="s">
         <v>30</v>
       </c>
@@ -2592,20 +2590,20 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="F3" s="74" t="s">
+      <c r="D3" s="77"/>
+      <c r="F3" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="75"/>
+      <c r="G3" s="76"/>
       <c r="H3" t="s">
         <v>101</v>
       </c>
@@ -2656,18 +2654,18 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
+      <c r="A4" s="72"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="F4" s="74" t="s">
+      <c r="D4" s="77"/>
+      <c r="F4" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="76"/>
       <c r="H4" t="s">
         <v>102</v>
       </c>
@@ -2734,7 +2732,7 @@
       <c r="AL4" s="14"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="72"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2797,7 +2795,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
+      <c r="A6" s="72"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2860,7 +2858,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="71"/>
+      <c r="A7" s="72"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2917,7 +2915,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+      <c r="A8" s="72"/>
       <c r="B8" t="s">
         <v>139</v>
       </c>
@@ -2927,7 +2925,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="71"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
@@ -3003,7 +3001,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3085,7 +3083,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3160,7 +3158,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="71"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="25" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +3245,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="72" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -3328,7 +3326,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="72"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3404,7 +3402,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -3477,7 +3475,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="72"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3540,7 +3538,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -3616,7 +3614,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A18" s="71"/>
+      <c r="A18" s="72"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -3667,7 +3665,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="72" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -3686,7 +3684,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A20" s="71"/>
+      <c r="A20" s="72"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -3695,7 +3693,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -3704,7 +3702,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A22" s="71"/>
+      <c r="A22" s="72"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3761,7 +3759,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="72" t="s">
         <v>67</v>
       </c>
       <c r="B23" t="s">
@@ -3806,7 +3804,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A24" s="71"/>
+      <c r="A24" s="72"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3833,13 +3831,13 @@
       <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A25" s="71"/>
+      <c r="A25" s="72"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
@@ -3847,7 +3845,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A27" s="71"/>
+      <c r="A27" s="72"/>
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -3901,7 +3899,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A28" s="71"/>
+      <c r="A28" s="72"/>
       <c r="B28" t="s">
         <v>69</v>
       </c>
@@ -3943,7 +3941,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A29" s="71"/>
+      <c r="A29" s="72"/>
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -4000,7 +3998,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A30" s="71"/>
+      <c r="A30" s="72"/>
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -4061,7 +4059,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A31" s="71"/>
+      <c r="A31" s="72"/>
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -4118,7 +4116,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A32" s="71"/>
+      <c r="A32" s="72"/>
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -4175,7 +4173,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="71"/>
+      <c r="A33" s="72"/>
       <c r="B33" t="s">
         <v>30</v>
       </c>

--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="240">
   <si>
     <t>Name</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>IEX ('financials')</t>
+  </si>
+  <si>
+    <t>IEX('company')</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2028,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2064,7 +2067,9 @@
       <c r="D2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="72"/>

--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="243">
   <si>
     <t>Name</t>
   </si>
@@ -737,6 +737,15 @@
   </si>
   <si>
     <t>IEX('company')</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -799,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -842,21 +851,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,17 +947,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,6 +961,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1298,7 +1292,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1328,7 +1322,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="71" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -1336,31 +1330,31 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="72"/>
+      <c r="A3" s="71"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="72"/>
+      <c r="A4" s="71"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="72"/>
+      <c r="A5" s="71"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="72"/>
+      <c r="A6" s="71"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="72"/>
+      <c r="A7" s="71"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1372,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="72"/>
+      <c r="A8" s="71"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1381,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1404,7 +1398,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="72"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1407,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1416,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1436,7 +1430,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
+      <c r="A13" s="71"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1439,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="72"/>
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1457,7 +1451,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
+      <c r="A15" s="71"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1466,7 +1460,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="72"/>
+      <c r="A16" s="71"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1475,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
+      <c r="A17" s="71"/>
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +1487,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
+      <c r="A18" s="71"/>
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1663,27 +1657,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="73"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="72"/>
+      <c r="A2" s="71"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +1692,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="72"/>
+      <c r="A3" s="71"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1707,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="72"/>
+      <c r="A4" s="71"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1725,40 +1719,40 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="72"/>
+      <c r="A5" s="71"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="73"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="72"/>
+      <c r="A6" s="71"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="72"/>
       <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="72"/>
+      <c r="A7" s="71"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="72"/>
       <c r="E7" t="s">
         <v>11</v>
       </c>
@@ -1767,7 +1761,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="72"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1782,7 +1776,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1799,7 +1793,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="72"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1811,7 +1805,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
+      <c r="A11" s="71"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1821,13 +1815,13 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="73"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1844,7 +1838,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
+      <c r="A13" s="71"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1859,7 +1853,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="72"/>
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1871,7 +1865,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
+      <c r="A15" s="71"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1880,7 +1874,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="72"/>
+      <c r="A16" s="71"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1889,7 +1883,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
+      <c r="A17" s="71"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1898,7 +1892,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
+      <c r="A18" s="71"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1907,7 +1901,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -1918,7 +1912,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="72"/>
+      <c r="A20" s="71"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1927,13 +1921,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
+      <c r="A21" s="71"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -1941,25 +1935,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
+      <c r="A23" s="71"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="72"/>
+      <c r="A24" s="71"/>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="72"/>
+      <c r="A25" s="71"/>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="71" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
@@ -1967,37 +1961,37 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="72"/>
+      <c r="A27" s="71"/>
       <c r="B27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="72"/>
+      <c r="A28" s="71"/>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="72"/>
+      <c r="A29" s="71"/>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="72"/>
+      <c r="A30" s="71"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="72"/>
+      <c r="A31" s="71"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="72"/>
+      <c r="A32" s="71"/>
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -2025,10 +2019,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2037,11 +2031,14 @@
     <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.15234375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>230</v>
       </c>
       <c r="C1" s="68" t="s">
@@ -2053,9 +2050,12 @@
       <c r="E1" s="69" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="72" t="s">
+      <c r="F1" s="69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -2070,9 +2070,14 @@
       <c r="E2" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="72"/>
+      <c r="F2" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2081,9 +2086,14 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="72"/>
+      <c r="F3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2095,8 +2105,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="72"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2108,8 +2120,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="72"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -2120,10 +2134,14 @@
       <c r="E6" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="72"/>
+      <c r="F6" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -2135,16 +2153,20 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="72"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -2155,21 +2177,9 @@
       <c r="E9" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="H9" s="71">
-        <v>0.48</v>
-      </c>
-      <c r="I9" s="71">
-        <v>-1.78</v>
-      </c>
-      <c r="J9" s="71">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K9" s="71">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="74" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="77" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="70" t="s">
@@ -2179,12 +2189,12 @@
         <v>141</v>
       </c>
       <c r="D10" s="70"/>
-      <c r="E10" s="70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="74"/>
+      <c r="E10" s="70"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="77" t="s">
+        <v>34</v>
+      </c>
       <c r="B11" s="70" t="s">
         <v>8</v>
       </c>
@@ -2194,8 +2204,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="74"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="77" t="s">
+        <v>34</v>
+      </c>
       <c r="B12" s="70" t="s">
         <v>9</v>
       </c>
@@ -2205,8 +2217,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="72" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="76" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
@@ -2222,8 +2234,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="72"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="76" t="s">
+        <v>48</v>
+      </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -2235,8 +2249,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="76" t="s">
+        <v>48</v>
+      </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2248,8 +2264,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="72"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="76" t="s">
+        <v>48</v>
+      </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2260,9 +2278,14 @@
       <c r="E16" s="70" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
+      <c r="F16" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="76" t="s">
+        <v>48</v>
+      </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -2273,13 +2296,14 @@
       <c r="E17" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="I17">
-        <f>AVERAGE(H9:K9)</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
+      <c r="F17" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="76" t="s">
+        <v>48</v>
+      </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -2287,21 +2311,19 @@
       <c r="E18" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="I18">
-        <f>AVERAGE(I9:K9)</f>
-        <v>-0.14666666666666664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="76" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="74" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="77" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="70" t="s">
@@ -2311,8 +2333,10 @@
       <c r="D20" s="70"/>
       <c r="E20" s="70"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="74"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="77" t="s">
+        <v>62</v>
+      </c>
       <c r="B21" s="70" t="s">
         <v>18</v>
       </c>
@@ -2320,8 +2344,10 @@
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="74"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="77" t="s">
+        <v>62</v>
+      </c>
       <c r="B22" s="70" t="s">
         <v>19</v>
       </c>
@@ -2333,8 +2359,10 @@
       </c>
       <c r="E22" s="70"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="74"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="77" t="s">
+        <v>62</v>
+      </c>
       <c r="B23" s="70" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2374,8 @@
       </c>
       <c r="E23" s="70"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="76" t="s">
         <v>67</v>
       </c>
       <c r="B24" t="s">
@@ -2356,16 +2384,20 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="72"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="76" t="s">
+        <v>67</v>
+      </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="72"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="76" t="s">
+        <v>67</v>
+      </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -2373,8 +2405,10 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="72"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="76" t="s">
+        <v>67</v>
+      </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2416,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="74" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="77" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="70" t="s">
@@ -2399,8 +2433,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="74"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="77" t="s">
+        <v>68</v>
+      </c>
       <c r="B29" s="70" t="s">
         <v>69</v>
       </c>
@@ -2412,8 +2448,10 @@
       </c>
       <c r="E29" s="70"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="74"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="77" t="s">
+        <v>68</v>
+      </c>
       <c r="B30" s="70" t="s">
         <v>26</v>
       </c>
@@ -2427,8 +2465,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="74"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="77" t="s">
+        <v>68</v>
+      </c>
       <c r="B31" s="70" t="s">
         <v>27</v>
       </c>
@@ -2439,9 +2479,14 @@
         <v>198</v>
       </c>
       <c r="E31" s="70"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="74"/>
+      <c r="F31" s="70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="77" t="s">
+        <v>68</v>
+      </c>
       <c r="B32" s="70" t="s">
         <v>28</v>
       </c>
@@ -2452,7 +2497,9 @@
       <c r="E32" s="70"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="74"/>
+      <c r="A33" s="77" t="s">
+        <v>68</v>
+      </c>
       <c r="B33" s="70" t="s">
         <v>29</v>
       </c>
@@ -2463,7 +2510,9 @@
       <c r="E33" s="70"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="74"/>
+      <c r="A34" s="77" t="s">
+        <v>68</v>
+      </c>
       <c r="B34" s="70" t="s">
         <v>30</v>
       </c>
@@ -2482,14 +2531,6 @@
       <c r="E36" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2595,20 +2636,20 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="F3" s="75" t="s">
+      <c r="D3" s="75"/>
+      <c r="F3" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="76"/>
+      <c r="G3" s="74"/>
       <c r="H3" t="s">
         <v>101</v>
       </c>
@@ -2659,18 +2700,18 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="72"/>
+      <c r="A4" s="71"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="F4" s="75" t="s">
+      <c r="D4" s="75"/>
+      <c r="F4" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="76"/>
+      <c r="G4" s="74"/>
       <c r="H4" t="s">
         <v>102</v>
       </c>
@@ -2737,7 +2778,7 @@
       <c r="AL4" s="14"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="72"/>
+      <c r="A5" s="71"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2800,7 +2841,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="72"/>
+      <c r="A6" s="71"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2863,7 +2904,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="72"/>
+      <c r="A7" s="71"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -2920,7 +2961,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="72"/>
+      <c r="A8" s="71"/>
       <c r="B8" t="s">
         <v>139</v>
       </c>
@@ -2930,7 +2971,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="72"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
@@ -3006,7 +3047,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3088,7 +3129,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3163,7 +3204,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="72"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="25" t="s">
         <v>9</v>
       </c>
@@ -3250,7 +3291,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -3331,7 +3372,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="72"/>
+      <c r="A14" s="71"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3407,7 +3448,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
+      <c r="A15" s="71"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -3480,7 +3521,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="72"/>
+      <c r="A16" s="71"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3543,7 +3584,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
+      <c r="A17" s="71"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -3619,7 +3660,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
+      <c r="A18" s="71"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -3670,7 +3711,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="71" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -3689,7 +3730,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A20" s="72"/>
+      <c r="A20" s="71"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -3698,7 +3739,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
+      <c r="A21" s="71"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -3707,7 +3748,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A22" s="72"/>
+      <c r="A22" s="71"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3764,7 +3805,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B23" t="s">
@@ -3809,7 +3850,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A24" s="72"/>
+      <c r="A24" s="71"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3836,13 +3877,13 @@
       <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A25" s="72"/>
+      <c r="A25" s="71"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="71" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
@@ -3850,7 +3891,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A27" s="72"/>
+      <c r="A27" s="71"/>
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -3904,7 +3945,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A28" s="72"/>
+      <c r="A28" s="71"/>
       <c r="B28" t="s">
         <v>69</v>
       </c>
@@ -3946,7 +3987,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A29" s="72"/>
+      <c r="A29" s="71"/>
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -4003,7 +4044,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A30" s="72"/>
+      <c r="A30" s="71"/>
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -4064,7 +4105,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A31" s="72"/>
+      <c r="A31" s="71"/>
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -4121,7 +4162,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A32" s="72"/>
+      <c r="A32" s="71"/>
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -4178,7 +4219,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="72"/>
+      <c r="A33" s="71"/>
       <c r="B33" t="s">
         <v>30</v>
       </c>

--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -12,12 +12,15 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
     <sheet name="Valuations" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="245">
   <si>
     <t>Name</t>
   </si>
@@ -746,6 +749,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>IEX('financials')</t>
+  </si>
+  <si>
+    <t>IEX('financials') - calculated as netProfit / totalRevenue</t>
   </si>
 </sst>
 </file>
@@ -2019,10 +2028,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2034,7 +2043,7 @@
     <col min="5" max="5" width="17.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="68" t="s">
         <v>240</v>
       </c>
@@ -2054,7 +2063,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2074,7 +2083,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2090,27 +2099,30 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="70" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>108</v>
@@ -2119,26 +2131,29 @@
       <c r="E5" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F5" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="70" t="s">
-        <v>236</v>
+      <c r="E6" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2152,8 +2167,11 @@
       <c r="E7" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2163,7 +2181,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -2175,10 +2193,17 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="70" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>243</v>
+      </c>
+      <c r="J9">
+        <v>110000000</v>
+      </c>
+      <c r="L9">
+        <f>J9/J10*100</f>
+        <v>0.22299256015731109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="77" t="s">
         <v>34</v>
       </c>
@@ -2189,9 +2214,14 @@
         <v>141</v>
       </c>
       <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10">
+        <v>49329000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="77" t="s">
         <v>34</v>
       </c>
@@ -2204,7 +2234,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="77" t="s">
         <v>34</v>
       </c>
@@ -2217,139 +2247,124 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="70"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="70" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="70" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="D16" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="76" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="76" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="70" t="s">
-        <v>236</v>
-      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="76" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
+      <c r="A20" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="77" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
+        <v>27</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>198</v>
+      </c>
       <c r="E21" s="70"/>
+      <c r="F21" s="70" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="77" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C22" s="70" t="s">
         <v>141</v>
@@ -2357,14 +2372,16 @@
       <c r="D22" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="70"/>
+      <c r="E22" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="77" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C23" s="70" t="s">
         <v>141</v>
@@ -2375,152 +2392,163 @@
       <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="70" t="s">
+      <c r="A28" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="70" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="70"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="70" t="s">
+      <c r="D30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="70" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="70" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="70"/>
+      <c r="A33" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="70"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
+      <c r="A34" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B35" s="70"/>
@@ -2531,6 +2559,15 @@
       <c r="E36" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1">
+    <sortState ref="A2:F34">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A1:F1">
+    <sortCondition ref="A1"/>
+    <sortCondition ref="F1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="1054" windowWidth="12411" windowHeight="9257" activeTab="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="245">
   <si>
     <t>Name</t>
   </si>
@@ -2031,7 +2031,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2194,6 +2194,9 @@
       <c r="D9" s="2"/>
       <c r="E9" s="70" t="s">
         <v>243</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="J9">
         <v>110000000</v>

--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -9,18 +9,18 @@
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
     <sheet name="Database structure" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Implementation Tracker" sheetId="4" r:id="rId3"/>
     <sheet name="Valuations" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Implementation Tracker'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="245">
   <si>
     <t>Name</t>
   </si>
@@ -957,6 +957,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -970,12 +976,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1331,7 +1331,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
@@ -1339,31 +1339,31 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="71"/>
+      <c r="A3" s="73"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
+      <c r="A4" s="73"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="73"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
+      <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="71"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1407,7 +1407,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="71"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1416,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="73" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1439,7 +1439,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="71"/>
+      <c r="A13" s="73"/>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1448,7 +1448,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="71"/>
+      <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="71"/>
+      <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +1496,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="71"/>
+      <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1666,27 +1666,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="72"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="71"/>
+      <c r="A2" s="73"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1701,7 +1701,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="71"/>
+      <c r="A3" s="73"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
+      <c r="A4" s="73"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1728,40 +1728,40 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="73"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="72"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
+      <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="74"/>
       <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="71"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="74"/>
       <c r="E7" t="s">
         <v>11</v>
       </c>
@@ -1770,7 +1770,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1785,7 +1785,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1802,7 +1802,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="71"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
+      <c r="A11" s="73"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1824,13 +1824,13 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="73" t="s">
         <v>48</v>
       </c>
       <c r="B12" t="s">
@@ -1847,7 +1847,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="71"/>
+      <c r="A13" s="73"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="71"/>
+      <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1883,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="71"/>
+      <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="71"/>
+      <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="73" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -1921,7 +1921,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="71"/>
+      <c r="A20" s="73"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -1930,13 +1930,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="71"/>
+      <c r="A21" s="73"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="73" t="s">
         <v>67</v>
       </c>
       <c r="B22" t="s">
@@ -1944,25 +1944,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="71"/>
+      <c r="A23" s="73"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="71"/>
+      <c r="A24" s="73"/>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="71"/>
+      <c r="A25" s="73"/>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="73" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
@@ -1970,37 +1970,37 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="71"/>
+      <c r="A27" s="73"/>
       <c r="B27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="71"/>
+      <c r="A28" s="73"/>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="71"/>
+      <c r="A29" s="73"/>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="71"/>
+      <c r="A30" s="73"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="71"/>
+      <c r="A31" s="73"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="71"/>
+      <c r="A32" s="73"/>
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -2031,7 +2031,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2207,7 +2207,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="70" t="s">
@@ -2220,12 +2220,15 @@
       <c r="E10" s="70" t="s">
         <v>244</v>
       </c>
+      <c r="F10" s="70" t="s">
+        <v>242</v>
+      </c>
       <c r="J10">
         <v>49329000000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="70" t="s">
@@ -2236,9 +2239,12 @@
       <c r="E11" s="70" t="s">
         <v>238</v>
       </c>
+      <c r="F11" s="70" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="70" t="s">
@@ -2249,9 +2255,12 @@
       <c r="E12" s="70" t="s">
         <v>238</v>
       </c>
+      <c r="F12" s="70" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="72" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="70" t="s">
@@ -2262,7 +2271,7 @@
       <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="72" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="70" t="s">
@@ -2273,7 +2282,7 @@
       <c r="E14" s="70"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="72" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="70" t="s">
@@ -2288,7 +2297,7 @@
       <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="72" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="70" t="s">
@@ -2303,7 +2312,7 @@
       <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
@@ -2313,7 +2322,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B18" t="s">
@@ -2323,7 +2332,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B19" t="s">
@@ -2334,7 +2343,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="71" t="s">
         <v>67</v>
       </c>
       <c r="B20" t="s">
@@ -2345,7 +2354,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="70" t="s">
@@ -2363,7 +2372,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="70" t="s">
@@ -2380,7 +2389,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="70" t="s">
@@ -2395,7 +2404,7 @@
       <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="70" t="s">
@@ -2412,7 +2421,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="70" t="s">
@@ -2425,7 +2434,7 @@
       <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="70" t="s">
@@ -2438,7 +2447,7 @@
       <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="72" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="70" t="s">
@@ -2451,7 +2460,7 @@
       <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B28" t="s">
@@ -2469,7 +2478,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B29" t="s">
@@ -2487,7 +2496,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B30" t="s">
@@ -2504,7 +2513,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B31" t="s">
@@ -2519,7 +2528,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B32" t="s">
@@ -2534,7 +2543,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B33" t="s">
@@ -2544,7 +2553,7 @@
       <c r="E33" s="70"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B34" t="s">
@@ -2676,20 +2685,20 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="73" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="F3" s="73" t="s">
+      <c r="D3" s="77"/>
+      <c r="F3" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="76"/>
       <c r="H3" t="s">
         <v>101</v>
       </c>
@@ -2740,18 +2749,18 @@
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
+      <c r="A4" s="73"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="F4" s="73" t="s">
+      <c r="D4" s="77"/>
+      <c r="F4" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="76"/>
       <c r="H4" t="s">
         <v>102</v>
       </c>
@@ -2818,7 +2827,7 @@
       <c r="AL4" s="14"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="71"/>
+      <c r="A5" s="73"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +2890,7 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="71"/>
+      <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2944,7 +2953,7 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="71"/>
+      <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -3001,7 +3010,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>139</v>
       </c>
@@ -3011,7 +3020,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="71"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
@@ -3087,7 +3096,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3169,7 +3178,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
@@ -3244,7 +3253,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="71"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="25" t="s">
         <v>9</v>
       </c>
@@ -3331,7 +3340,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="73" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -3412,7 +3421,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A14" s="71"/>
+      <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3488,7 +3497,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A15" s="71"/>
+      <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -3561,7 +3570,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
+      <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3624,7 +3633,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A17" s="71"/>
+      <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -3700,7 +3709,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A18" s="71"/>
+      <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -3751,7 +3760,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="73" t="s">
         <v>62</v>
       </c>
       <c r="B19" t="s">
@@ -3770,7 +3779,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A20" s="71"/>
+      <c r="A20" s="73"/>
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -3779,7 +3788,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A21" s="71"/>
+      <c r="A21" s="73"/>
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -3788,7 +3797,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A22" s="71"/>
+      <c r="A22" s="73"/>
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -3845,7 +3854,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="73" t="s">
         <v>67</v>
       </c>
       <c r="B23" t="s">
@@ -3890,7 +3899,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A24" s="71"/>
+      <c r="A24" s="73"/>
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3917,13 +3926,13 @@
       <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A25" s="71"/>
+      <c r="A25" s="73"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="73" t="s">
         <v>68</v>
       </c>
       <c r="B26" t="s">
@@ -3931,7 +3940,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A27" s="71"/>
+      <c r="A27" s="73"/>
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -3985,7 +3994,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A28" s="71"/>
+      <c r="A28" s="73"/>
       <c r="B28" t="s">
         <v>69</v>
       </c>
@@ -4027,7 +4036,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A29" s="71"/>
+      <c r="A29" s="73"/>
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -4084,7 +4093,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A30" s="71"/>
+      <c r="A30" s="73"/>
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -4145,7 +4154,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A31" s="71"/>
+      <c r="A31" s="73"/>
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -4202,7 +4211,7 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A32" s="71"/>
+      <c r="A32" s="73"/>
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -4259,7 +4268,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="71"/>
+      <c r="A33" s="73"/>
       <c r="B33" t="s">
         <v>30</v>
       </c>

--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1054" windowWidth="12411" windowHeight="9257" activeTab="2"/>
+    <workbookView xWindow="5880" yWindow="1056" windowWidth="7344" windowHeight="5856" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Implementation Tracker'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="245">
   <si>
     <t>Name</t>
   </si>
@@ -733,9 +734,6 @@
     <t>IEX ('Key Stats')</t>
   </si>
   <si>
-    <t>IEX ('earnings')</t>
-  </si>
-  <si>
     <t>IEX ('financials')</t>
   </si>
   <si>
@@ -755,6 +753,9 @@
   </si>
   <si>
     <t>IEX('financials') - calculated as netProfit / totalRevenue</t>
+  </si>
+  <si>
+    <t>IEX ('earnings' - 'stats') - calculated</t>
   </si>
 </sst>
 </file>
@@ -1304,16 +1305,16 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.53515625" customWidth="1"/>
-    <col min="7" max="7" width="33.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5234375" customWidth="1"/>
+    <col min="7" max="7" width="33.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
         <v>41</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="73" t="s">
         <v>35</v>
       </c>
@@ -1338,31 +1339,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="73"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="73"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="73"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -1380,7 +1381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>6</v>
@@ -1389,7 +1390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="73" t="s">
         <v>34</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="73"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1415,7 +1416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="73"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1424,7 +1425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="73" t="s">
         <v>48</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="73"/>
       <c r="B13" t="s">
         <v>11</v>
@@ -1447,7 +1448,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>12</v>
@@ -1459,7 +1460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>13</v>
@@ -1468,7 +1469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>14</v>
@@ -1483,7 +1484,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>15</v>
@@ -1495,7 +1496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>16</v>
@@ -1507,7 +1508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1532,17 +1533,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1550,22 +1551,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>69</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -1658,14 +1659,14 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="73" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1686,7 @@
       </c>
       <c r="H1" s="74"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="73"/>
       <c r="B2" t="s">
         <v>1</v>
@@ -1700,7 +1701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="73"/>
       <c r="B3" t="s">
         <v>2</v>
@@ -1715,7 +1716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="73"/>
       <c r="B4" t="s">
         <v>3</v>
@@ -1727,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="73"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -1740,7 +1741,7 @@
       </c>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>5</v>
@@ -1753,7 +1754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>6</v>
@@ -1769,7 +1770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="73"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1784,7 +1785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="73" t="s">
         <v>34</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="73"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1813,7 +1814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="73"/>
       <c r="B11" t="s">
         <v>10</v>
@@ -1829,7 +1830,7 @@
       </c>
       <c r="H11" s="74"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="73" t="s">
         <v>48</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="73"/>
       <c r="B13" t="s">
         <v>12</v>
@@ -1861,7 +1862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>13</v>
@@ -1873,7 +1874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>14</v>
@@ -1882,7 +1883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>15</v>
@@ -1891,7 +1892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>16</v>
@@ -1900,7 +1901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>17</v>
@@ -1909,7 +1910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="73" t="s">
         <v>62</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="73"/>
       <c r="B20" t="s">
         <v>19</v>
@@ -1929,13 +1930,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="73"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="73" t="s">
         <v>67</v>
       </c>
@@ -1943,25 +1944,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="73"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="73"/>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="73"/>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="73" t="s">
         <v>68</v>
       </c>
@@ -1969,37 +1970,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="73"/>
       <c r="B27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="73"/>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="73"/>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="73"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="73"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="73"/>
       <c r="B32" t="s">
         <v>30</v>
@@ -2031,21 +2032,21 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15234375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3046875" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.15625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>230</v>
@@ -2060,10 +2061,10 @@
         <v>233</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2077,13 +2078,13 @@
         <v>195</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2096,10 +2097,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -2114,10 +2115,10 @@
         <v>236</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -2132,10 +2133,10 @@
         <v>235</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2150,10 +2151,10 @@
         <v>235</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -2168,10 +2169,10 @@
         <v>235</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2181,7 +2182,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -2193,10 +2194,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J9">
         <v>110000000</v>
@@ -2206,7 +2207,7 @@
         <v>0.22299256015731109</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="72" t="s">
         <v>34</v>
       </c>
@@ -2218,16 +2219,16 @@
       </c>
       <c r="D10" s="70"/>
       <c r="E10" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J10">
         <v>49329000000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="72" t="s">
         <v>34</v>
       </c>
@@ -2237,13 +2238,13 @@
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
       <c r="E11" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="72" t="s">
         <v>34</v>
       </c>
@@ -2253,13 +2254,13 @@
       <c r="C12" s="70"/>
       <c r="D12" s="70"/>
       <c r="E12" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="72" t="s">
         <v>62</v>
       </c>
@@ -2270,7 +2271,7 @@
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="72" t="s">
         <v>62</v>
       </c>
@@ -2281,7 +2282,7 @@
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="72" t="s">
         <v>62</v>
       </c>
@@ -2296,7 +2297,7 @@
       </c>
       <c r="E15" s="70"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="72" t="s">
         <v>62</v>
       </c>
@@ -2311,7 +2312,7 @@
       </c>
       <c r="E16" s="70"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="71" t="s">
         <v>67</v>
       </c>
@@ -2321,7 +2322,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="71" t="s">
         <v>67</v>
       </c>
@@ -2331,7 +2332,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="71" t="s">
         <v>67</v>
       </c>
@@ -2342,7 +2343,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="71" t="s">
         <v>67</v>
       </c>
@@ -2353,7 +2354,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="72" t="s">
         <v>68</v>
       </c>
@@ -2368,10 +2369,10 @@
       </c>
       <c r="E21" s="70"/>
       <c r="F21" s="70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="72" t="s">
         <v>68</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="72" t="s">
         <v>68</v>
       </c>
@@ -2403,7 +2404,7 @@
       </c>
       <c r="E23" s="70"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="72" t="s">
         <v>68</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="72" t="s">
         <v>68</v>
       </c>
@@ -2433,7 +2434,7 @@
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="72" t="s">
         <v>68</v>
       </c>
@@ -2446,7 +2447,7 @@
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="72" t="s">
         <v>68</v>
       </c>
@@ -2459,7 +2460,7 @@
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="71" t="s">
         <v>48</v>
       </c>
@@ -2474,10 +2475,10 @@
         <v>236</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="71" t="s">
         <v>48</v>
       </c>
@@ -2492,10 +2493,10 @@
         <v>236</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="71" t="s">
         <v>48</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="71" t="s">
         <v>48</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="71" t="s">
         <v>48</v>
       </c>
@@ -2539,10 +2540,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="70" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="71" t="s">
         <v>48</v>
       </c>
@@ -2552,7 +2556,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="70"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="71" t="s">
         <v>48</v>
       </c>
@@ -2562,11 +2566,11 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="70"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
@@ -2594,38 +2598,38 @@
       <selection pane="topRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3828125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15234375" style="5"/>
-    <col min="10" max="10" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.15234375" style="8"/>
-    <col min="12" max="12" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.83984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.15625" style="5"/>
+    <col min="10" max="10" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.15625" style="8"/>
+    <col min="12" max="12" width="12.20703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="8" customWidth="1"/>
-    <col min="14" max="14" width="13.15234375" customWidth="1"/>
-    <col min="15" max="15" width="16.23046875" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.15625" customWidth="1"/>
+    <col min="15" max="15" width="16.20703125" style="39" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.15234375" style="5"/>
-    <col min="20" max="20" width="9.15234375" style="5"/>
-    <col min="21" max="21" width="9.15234375" style="29"/>
-    <col min="22" max="22" width="15.69140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.23046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.15234375" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.84375" style="48" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.15234375" style="52"/>
+    <col min="18" max="18" width="9.15625" style="5"/>
+    <col min="20" max="20" width="9.15625" style="5"/>
+    <col min="21" max="21" width="9.15625" style="29"/>
+    <col min="22" max="22" width="15.68359375" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.20703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.83984375" style="48" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.15625" style="52"/>
     <col min="29" max="29" width="14" style="57" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.15234375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.69140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.3828125" style="8" customWidth="1"/>
-    <col min="34" max="34" width="13.765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.15625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.68359375" style="61" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.3671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.3671875" style="8" customWidth="1"/>
+    <col min="34" max="34" width="13.734375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AF1" t="s">
         <v>217</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="4">
         <v>2011</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="73" t="s">
         <v>35</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="73"/>
       <c r="B4" t="s">
         <v>1</v>
@@ -2826,7 +2830,7 @@
       <c r="AK4" s="14"/>
       <c r="AL4" s="14"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="73"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -2889,7 +2893,7 @@
         <v>159.99</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>3</v>
@@ -2952,7 +2956,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>4</v>
@@ -3009,7 +3013,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>139</v>
@@ -3019,7 +3023,7 @@
         <v>794506.86713999999</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="73"/>
       <c r="B9" s="18" t="s">
         <v>6</v>
@@ -3095,7 +3099,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="73" t="s">
         <v>34</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="73"/>
       <c r="B11" s="21" t="s">
         <v>8</v>
@@ -3252,7 +3256,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="73"/>
       <c r="B12" s="25" t="s">
         <v>9</v>
@@ -3339,7 +3343,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="73" t="s">
         <v>48</v>
       </c>
@@ -3420,7 +3424,7 @@
         <v>12.557490144546648</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>11</v>
@@ -3496,7 +3500,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>12</v>
@@ -3569,7 +3573,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>13</v>
@@ -3632,7 +3636,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>14</v>
@@ -3708,7 +3712,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>15</v>
@@ -3759,7 +3763,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="73" t="s">
         <v>62</v>
       </c>
@@ -3778,7 +3782,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="73"/>
       <c r="B20" t="s">
         <v>17</v>
@@ -3787,7 +3791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="73"/>
       <c r="B21" t="s">
         <v>18</v>
@@ -3796,7 +3800,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="73"/>
       <c r="B22" t="s">
         <v>19</v>
@@ -3853,7 +3857,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="73" t="s">
         <v>67</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="73"/>
       <c r="B24" t="s">
         <v>21</v>
@@ -3925,13 +3929,13 @@
       </c>
       <c r="U24" s="38"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="73"/>
       <c r="B25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="73" t="s">
         <v>68</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="73"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -3993,7 +3997,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="73"/>
       <c r="B28" t="s">
         <v>69</v>
@@ -4035,7 +4039,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="73"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -4092,7 +4096,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="73"/>
       <c r="B30" t="s">
         <v>27</v>
@@ -4153,7 +4157,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="73"/>
       <c r="B31" t="s">
         <v>28</v>
@@ -4210,7 +4214,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="73"/>
       <c r="B32" t="s">
         <v>29</v>
@@ -4267,13 +4271,13 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="73"/>
       <c r="B33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="L35" s="10"/>
       <c r="M35" s="13"/>
       <c r="N35" s="10"/>
@@ -4281,7 +4285,7 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10">

--- a/Valuations.xlsx
+++ b/Valuations.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workbench\fundamentalsData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8069FD1F-668E-43BA-A5D0-3A0473B95259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1056" windowWidth="7344" windowHeight="5856" activeTab="2"/>
+    <workbookView xWindow="4815" yWindow="1710" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Descriptions" sheetId="1" r:id="rId1"/>
-    <sheet name="Database structure" sheetId="2" r:id="rId2"/>
-    <sheet name="Implementation Tracker" sheetId="4" r:id="rId3"/>
-    <sheet name="Valuations" sheetId="3" r:id="rId4"/>
+    <sheet name="Valuations" sheetId="3" r:id="rId1"/>
+    <sheet name="Descriptions" sheetId="1" r:id="rId2"/>
+    <sheet name="Database structure" sheetId="2" r:id="rId3"/>
+    <sheet name="Implementation Tracker" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Implementation Tracker'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Implementation Tracker'!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="233">
   <si>
     <t>Name</t>
   </si>
@@ -317,9 +330,6 @@
     <t>285.79M</t>
   </si>
   <si>
-    <t>5 yr avg</t>
-  </si>
-  <si>
     <t>1.38B</t>
   </si>
   <si>
@@ -341,9 +351,6 @@
     <t>incr past 5y</t>
   </si>
   <si>
-    <t>5y</t>
-  </si>
-  <si>
     <t>ahead5: 12.45</t>
   </si>
   <si>
@@ -398,9 +405,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>in billions</t>
-  </si>
-  <si>
     <t>5y = 2.374</t>
   </si>
   <si>
@@ -419,9 +423,6 @@
     <t>107.6-108.75</t>
   </si>
   <si>
-    <t>BILLIONS</t>
-  </si>
-  <si>
     <t>EUR</t>
   </si>
   <si>
@@ -473,9 +474,6 @@
     <t>1.32B</t>
   </si>
   <si>
-    <t>MILLIONS</t>
-  </si>
-  <si>
     <t>acc payable</t>
   </si>
   <si>
@@ -497,9 +495,6 @@
     <t>volatile mgns</t>
   </si>
   <si>
-    <t>MILLION</t>
-  </si>
-  <si>
     <t>v low average</t>
   </si>
   <si>
@@ -527,9 +522,6 @@
     <t>2243 acc payable</t>
   </si>
   <si>
-    <t>MIL</t>
-  </si>
-  <si>
     <t>outlier</t>
   </si>
   <si>
@@ -569,9 +561,6 @@
     <t>incr past 5 years</t>
   </si>
   <si>
-    <t>Mil</t>
-  </si>
-  <si>
     <t>strong up</t>
   </si>
   <si>
@@ -635,9 +624,6 @@
     <t>43.8M</t>
   </si>
   <si>
-    <t>USD MIL</t>
-  </si>
-  <si>
     <t>steady, slow up</t>
   </si>
   <si>
@@ -656,12 +642,6 @@
     <t>184.47B</t>
   </si>
   <si>
-    <t>USD BIL</t>
-  </si>
-  <si>
-    <t>USD MM</t>
-  </si>
-  <si>
     <t>RF Industries</t>
   </si>
   <si>
@@ -672,9 +652,6 @@
   </si>
   <si>
     <t>55.2MM</t>
-  </si>
-  <si>
-    <t>feb. 2013</t>
   </si>
   <si>
     <t>steady up</t>
@@ -761,7 +738,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1007,6 +984,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1054,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1087,9 +1067,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1122,6 +1119,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1297,7 +1311,1688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:AL36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE10" sqref="AE10:AF10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="8" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="5"/>
+    <col min="20" max="20" width="9.140625" style="5"/>
+    <col min="21" max="21" width="9.140625" style="29"/>
+    <col min="22" max="22" width="15.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="52"/>
+    <col min="29" max="29" width="14" style="57" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" style="8" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="8"/>
+      <c r="AB2"/>
+      <c r="AD2" s="56"/>
+      <c r="AF2" s="14"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="F3" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" t="s">
+        <v>148</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA3" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB3" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD3" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE3" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="F4" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="W4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA4" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB4" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD4" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE4" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG4" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH4" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.92</v>
+      </c>
+      <c r="H5">
+        <v>3.33</v>
+      </c>
+      <c r="K5" s="8">
+        <v>2.82</v>
+      </c>
+      <c r="M5" s="8">
+        <v>22.02</v>
+      </c>
+      <c r="O5" s="39">
+        <v>108.03</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5">
+        <v>25.07</v>
+      </c>
+      <c r="S5">
+        <v>80.95</v>
+      </c>
+      <c r="U5" s="29">
+        <v>56.66</v>
+      </c>
+      <c r="W5">
+        <v>7.59</v>
+      </c>
+      <c r="Y5">
+        <v>39.74</v>
+      </c>
+      <c r="AA5" s="48">
+        <v>7.39</v>
+      </c>
+      <c r="AB5" s="56">
+        <v>7.82</v>
+      </c>
+      <c r="AD5" s="56">
+        <v>1.28</v>
+      </c>
+      <c r="AE5" s="61">
+        <v>41.42</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>6.77</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>11.64</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>159.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="W6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA6" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD6" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE6" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="39">
+        <v>13.35</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="W7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA7" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD7" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE7" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" s="39">
+        <f>88.60342*8967</f>
+        <v>794506.86713999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="19">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>5282</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="M9" s="20">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="O9" s="41">
+        <v>1783</v>
+      </c>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="18">
+        <v>758</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="18">
+        <v>4267</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="32">
+        <v>15440</v>
+      </c>
+      <c r="V9" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="W9" s="18">
+        <v>824</v>
+      </c>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="18">
+        <v>423</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA9" s="49">
+        <v>54124</v>
+      </c>
+      <c r="AB9" s="53">
+        <v>247</v>
+      </c>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="18">
+        <v>213</v>
+      </c>
+      <c r="AE9" s="62">
+        <v>48017</v>
+      </c>
+      <c r="AF9" s="18">
+        <v>37</v>
+      </c>
+      <c r="AG9" s="20">
+        <v>3970</v>
+      </c>
+      <c r="AH9" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <f>156701/8036599*100</f>
+        <v>1.9498422155939346</v>
+      </c>
+      <c r="D10" s="3">
+        <f>-28472/2077875*100</f>
+        <v>-1.3702460446369489</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12.43</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.2462</v>
+      </c>
+      <c r="K10" s="8">
+        <v>-3.85</v>
+      </c>
+      <c r="M10" s="11">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="O10" s="42">
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="S10">
+        <v>10.44</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="U10" s="29">
+        <v>6.63</v>
+      </c>
+      <c r="W10">
+        <v>5.19</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y10">
+        <v>44.85</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA10" s="48">
+        <v>9.89</v>
+      </c>
+      <c r="AB10" s="56">
+        <v>32.9</v>
+      </c>
+      <c r="AD10" s="56">
+        <v>9.67</v>
+      </c>
+      <c r="AE10" s="61">
+        <v>18.78</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>10.85</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>92.13</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22">
+        <v>2099839</v>
+      </c>
+      <c r="D11" s="22">
+        <v>2374346</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="22">
+        <v>468000000</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22">
+        <v>4048</v>
+      </c>
+      <c r="K11" s="24">
+        <v>10902</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="43">
+        <v>1.423</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="22">
+        <v>47</v>
+      </c>
+      <c r="R11" s="23"/>
+      <c r="S11" s="22">
+        <v>72</v>
+      </c>
+      <c r="T11" s="23"/>
+      <c r="U11" s="34">
+        <v>1791</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="22">
+        <v>34</v>
+      </c>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="50">
+        <v>96524</v>
+      </c>
+      <c r="AB11" s="54">
+        <v>44</v>
+      </c>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="22">
+        <v>17</v>
+      </c>
+      <c r="AE11" s="63">
+        <v>8442</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="24">
+        <v>552</v>
+      </c>
+      <c r="AH11" s="24">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1493552</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2145881</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18">
+        <v>424000000</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18">
+        <f>859+69</f>
+        <v>928</v>
+      </c>
+      <c r="K12" s="20">
+        <f>1352+3969</f>
+        <v>5321</v>
+      </c>
+      <c r="M12" s="20">
+        <f>(107750+323383)/1000</f>
+        <v>431.13299999999998</v>
+      </c>
+      <c r="O12" s="41">
+        <v>293</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>58</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" s="18">
+        <v>286</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="32">
+        <v>2629</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="W12" s="18">
+        <v>13</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>133</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA12" s="49">
+        <v>197372</v>
+      </c>
+      <c r="AB12" s="53">
+        <v>58</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>36</v>
+      </c>
+      <c r="AE12" s="62">
+        <v>17874</v>
+      </c>
+      <c r="AF12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG12" s="20">
+        <v>845</v>
+      </c>
+      <c r="AH12" s="20">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1.39</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="26">
+        <f>H9/284</f>
+        <v>18.598591549295776</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="M13" s="28">
+        <f>M9/10.56</f>
+        <v>13.948863636363637</v>
+      </c>
+      <c r="O13" s="44">
+        <f>O9/123.54</f>
+        <v>14.43257244617128</v>
+      </c>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="26">
+        <f>Q9/51</f>
+        <v>14.862745098039216</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="26">
+        <f>S9/55</f>
+        <v>77.581818181818178</v>
+      </c>
+      <c r="T13" s="27"/>
+      <c r="U13" s="36">
+        <f>U9/159</f>
+        <v>97.106918238993714</v>
+      </c>
+      <c r="V13" s="37"/>
+      <c r="W13" s="26">
+        <f>W9/14</f>
+        <v>58.857142857142854</v>
+      </c>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="26">
+        <f>Y9/50</f>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="51">
+        <f>AA9/9085</f>
+        <v>5.9575123830489822</v>
+      </c>
+      <c r="AB13" s="55">
+        <f>AB9/75</f>
+        <v>3.2933333333333334</v>
+      </c>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="26">
+        <f>AD9/35</f>
+        <v>6.0857142857142854</v>
+      </c>
+      <c r="AE13" s="64">
+        <f>AE9/8584</f>
+        <v>5.5937791239515375</v>
+      </c>
+      <c r="AF13" s="26">
+        <f>AF9/8.15</f>
+        <v>4.5398773006134965</v>
+      </c>
+      <c r="AG13" s="28">
+        <f>AG9/947.51</f>
+        <v>4.1899293938850253</v>
+      </c>
+      <c r="AH13" s="28">
+        <f>1529/121.76</f>
+        <v>12.557490144546648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G14" s="5">
+        <f>(0.14-0.58-0.73+0.39+1.98)/5</f>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="H14">
+        <v>0.69</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="39">
+        <v>3.97</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q14">
+        <v>0.63</v>
+      </c>
+      <c r="S14">
+        <v>-4.96</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="U14" s="29">
+        <v>7.22</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="W14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y14">
+        <v>-12.24</v>
+      </c>
+      <c r="AA14" s="48">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AB14" s="52">
+        <v>-0.09</v>
+      </c>
+      <c r="AD14" s="56">
+        <v>-0.5</v>
+      </c>
+      <c r="AE14" s="61">
+        <v>1.72</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0.62</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>7.28</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H15">
+        <v>4.46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="8">
+        <v>-0.31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="13">
+        <v>1.23</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" s="45">
+        <v>2.33</v>
+      </c>
+      <c r="P15" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>3.19</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15">
+        <v>5.86</v>
+      </c>
+      <c r="U15" s="29">
+        <v>6.42</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="W15">
+        <v>3.14</v>
+      </c>
+      <c r="Y15">
+        <v>3.8</v>
+      </c>
+      <c r="AA15" s="48">
+        <v>0.59</v>
+      </c>
+      <c r="AB15" s="56">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AD15" s="56">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AE15" s="61">
+        <v>1.97</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>3.74</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="11">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>3.09E-2</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="47">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" t="s">
+        <v>92</v>
+      </c>
+      <c r="U16" s="29">
+        <v>1.43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y16">
+        <v>0.45</v>
+      </c>
+      <c r="AA16" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE16" s="61">
+        <v>2.56</v>
+      </c>
+      <c r="AF16">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>10.43</v>
+      </c>
+      <c r="AH16" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3.37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17">
+        <v>8.17</v>
+      </c>
+      <c r="G17" s="5">
+        <f>(8.17+7.12+10.45+18.6+13.23)/5</f>
+        <v>11.514000000000001</v>
+      </c>
+      <c r="H17">
+        <v>34.33</v>
+      </c>
+      <c r="K17" s="8">
+        <v>-32.590000000000003</v>
+      </c>
+      <c r="L17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="8">
+        <v>10.6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="39">
+        <v>15.99</v>
+      </c>
+      <c r="P17" s="40">
+        <v>14.67</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="S17" s="14">
+        <v>21.2</v>
+      </c>
+      <c r="U17" s="31">
+        <v>96.88</v>
+      </c>
+      <c r="W17">
+        <v>63.83</v>
+      </c>
+      <c r="Y17">
+        <v>29.91</v>
+      </c>
+      <c r="AA17" s="48">
+        <v>7.07</v>
+      </c>
+      <c r="AB17" s="56">
+        <v>29.37</v>
+      </c>
+      <c r="AD17" s="56">
+        <v>12.8</v>
+      </c>
+      <c r="AE17" s="61">
+        <v>28</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>16.77</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>27.6</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O18" s="39">
+        <v>42.15</v>
+      </c>
+      <c r="S18" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="U18" s="29">
+        <v>0.92</v>
+      </c>
+      <c r="W18">
+        <v>1.85</v>
+      </c>
+      <c r="AA18" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB18" s="56">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AD18" s="56">
+        <v>67.2</v>
+      </c>
+      <c r="AE18" s="61">
+        <v>0.54</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>5.11E-2</v>
+      </c>
+      <c r="AH18" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="10"/>
+      <c r="AD19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-8.74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="W22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA22" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB22" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD22" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE22" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF22" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH22" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="8">
+        <f>((2.82/39.8)-1)*100</f>
+        <v>-92.914572864321613</v>
+      </c>
+      <c r="M23" s="8">
+        <f>((M5/40.5)-1)*100</f>
+        <v>-45.629629629629633</v>
+      </c>
+      <c r="O23" s="39">
+        <f>((O5/31)-1)*100</f>
+        <v>248.48387096774195</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA23" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD23" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE23" s="61">
+        <f>41.43-25.99</f>
+        <v>15.440000000000001</v>
+      </c>
+      <c r="AF23" s="65">
+        <v>1.48</v>
+      </c>
+      <c r="AH23" s="67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24">
+        <v>828.2</v>
+      </c>
+      <c r="H24">
+        <v>826.45</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="13">
+        <f>((147.901/M9)-1)*100</f>
+        <v>0.40801086218600346</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="45">
+        <f>((2028.22/O9)-1)*100</f>
+        <v>13.753224901850825</v>
+      </c>
+      <c r="U24" s="38"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>2.63</v>
+      </c>
+      <c r="H27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K27" s="12">
+        <v>-0.94</v>
+      </c>
+      <c r="M27" s="8">
+        <v>18.38</v>
+      </c>
+      <c r="O27" s="39">
+        <v>32.6</v>
+      </c>
+      <c r="Q27">
+        <v>6.56</v>
+      </c>
+      <c r="S27">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="U27" s="29">
+        <v>2.21</v>
+      </c>
+      <c r="W27">
+        <v>2.83</v>
+      </c>
+      <c r="Y27">
+        <v>10.1</v>
+      </c>
+      <c r="AA27" s="48">
+        <v>29.9</v>
+      </c>
+      <c r="AB27" s="56">
+        <v>7.51</v>
+      </c>
+      <c r="AD27" s="56">
+        <v>2.4</v>
+      </c>
+      <c r="AE27" s="61">
+        <v>21.37</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3">
+        <v>14.72</v>
+      </c>
+      <c r="F28">
+        <f>(7.65+14.16)/2</f>
+        <v>10.905000000000001</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="M28" s="8">
+        <f>AVERAGE(16.87,9.11)</f>
+        <v>12.99</v>
+      </c>
+      <c r="O28" s="39">
+        <f>AVERAGE(31.44,19.28)</f>
+        <v>25.36</v>
+      </c>
+      <c r="Y28">
+        <v>8.4</v>
+      </c>
+      <c r="AA28" s="48">
+        <v>13.3</v>
+      </c>
+      <c r="AB28" s="52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AD28" s="56">
+        <v>3.5</v>
+      </c>
+      <c r="AF28" s="14">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F29">
+        <v>0.21</v>
+      </c>
+      <c r="H29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="O29" s="39">
+        <v>5.4</v>
+      </c>
+      <c r="Q29">
+        <v>1.2</v>
+      </c>
+      <c r="S29">
+        <v>1.03</v>
+      </c>
+      <c r="U29" s="29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W29">
+        <v>0.22</v>
+      </c>
+      <c r="Y29">
+        <v>4.2</v>
+      </c>
+      <c r="AA29" s="48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB29" s="56">
+        <v>2.1</v>
+      </c>
+      <c r="AD29" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="AE29" s="61">
+        <v>3.85</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>1.6</v>
+      </c>
+      <c r="AH29" s="8">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>0.19</v>
+      </c>
+      <c r="H30">
+        <v>1.3</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="O30" s="39">
+        <v>4.7</v>
+      </c>
+      <c r="Q30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S30">
+        <v>1.84</v>
+      </c>
+      <c r="U30" s="29">
+        <v>1.98</v>
+      </c>
+      <c r="W30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z30" s="5">
+        <f>Y5/Y30</f>
+        <v>17.278260869565219</v>
+      </c>
+      <c r="AA30" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="AB30" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="AD30" s="56">
+        <v>0.3</v>
+      </c>
+      <c r="AE30" s="61">
+        <v>5.67</v>
+      </c>
+      <c r="AF30" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AH30" s="8">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31">
+        <v>1.45</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="39">
+        <v>1.81</v>
+      </c>
+      <c r="Q31">
+        <v>2.83</v>
+      </c>
+      <c r="S31">
+        <v>3.15</v>
+      </c>
+      <c r="U31" s="29">
+        <v>2.23</v>
+      </c>
+      <c r="W31">
+        <v>2.89</v>
+      </c>
+      <c r="Y31">
+        <v>1.03</v>
+      </c>
+      <c r="AA31" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB31" s="56">
+        <v>2.9</v>
+      </c>
+      <c r="AD31" s="56">
+        <v>2.69</v>
+      </c>
+      <c r="AE31" s="61">
+        <v>1.01</v>
+      </c>
+      <c r="AF31" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AH31" s="8">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32">
+        <v>1.38</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O32" s="39">
+        <v>1.74</v>
+      </c>
+      <c r="Q32">
+        <v>2.13</v>
+      </c>
+      <c r="S32">
+        <v>1.74</v>
+      </c>
+      <c r="U32" s="29">
+        <v>1.51</v>
+      </c>
+      <c r="W32">
+        <v>2.33</v>
+      </c>
+      <c r="Y32">
+        <v>0.93</v>
+      </c>
+      <c r="AA32" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB32" s="56">
+        <v>2.9</v>
+      </c>
+      <c r="AD32" s="56">
+        <v>1.8</v>
+      </c>
+      <c r="AE32" s="61">
+        <v>0.75</v>
+      </c>
+      <c r="AF32" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L35" s="10"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10">
+        <v>1.43</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A37:E1048576 P25:U1048576 P20:S23 O20:O1048576 O2:O18 Q2:S18 P2:P17 T2:U23 F1:N1048576 A2:E35 V1:X1048576 Z1:XFD1048576 Y2:Y4 Y6:Y1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -1305,16 +3000,16 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5234375" customWidth="1"/>
-    <col min="7" max="7" width="33.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>41</v>
       </c>
@@ -1331,7 +3026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>35</v>
       </c>
@@ -1339,31 +3034,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="73"/>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="73"/>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="73"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -1381,7 +3076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="73"/>
       <c r="B8" t="s">
         <v>6</v>
@@ -1390,7 +3085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
         <v>34</v>
       </c>
@@ -1407,7 +3102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1416,7 +3111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1425,7 +3120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
         <v>48</v>
       </c>
@@ -1439,7 +3134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
       <c r="B13" t="s">
         <v>11</v>
@@ -1448,7 +3143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>12</v>
@@ -1460,7 +3155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>13</v>
@@ -1469,7 +3164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>14</v>
@@ -1484,7 +3179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>15</v>
@@ -1496,7 +3191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>16</v>
@@ -1508,7 +3203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1522,7 +3217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1533,17 +3228,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1551,22 +3246,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1574,37 +3269,37 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1621,7 +3316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -1635,7 +3330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -1650,8 +3345,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -1659,14 +3354,14 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +3381,7 @@
       </c>
       <c r="H1" s="74"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73"/>
       <c r="B2" t="s">
         <v>1</v>
@@ -1701,7 +3396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="73"/>
       <c r="B3" t="s">
         <v>2</v>
@@ -1716,7 +3411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="73"/>
       <c r="B4" t="s">
         <v>3</v>
@@ -1728,7 +3423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="73"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -1741,7 +3436,7 @@
       </c>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
       <c r="B6" t="s">
         <v>5</v>
@@ -1754,7 +3449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" t="s">
         <v>6</v>
@@ -1770,7 +3465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="73"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1785,7 +3480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
         <v>34</v>
       </c>
@@ -1802,7 +3497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1814,7 +3509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" t="s">
         <v>10</v>
@@ -1830,7 +3525,7 @@
       </c>
       <c r="H11" s="74"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
         <v>48</v>
       </c>
@@ -1847,7 +3542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
       <c r="B13" t="s">
         <v>12</v>
@@ -1862,7 +3557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
       <c r="B14" t="s">
         <v>13</v>
@@ -1874,7 +3569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" t="s">
         <v>14</v>
@@ -1883,7 +3578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
       <c r="B16" t="s">
         <v>15</v>
@@ -1892,7 +3587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
       <c r="B17" t="s">
         <v>16</v>
@@ -1901,7 +3596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
       <c r="B18" t="s">
         <v>17</v>
@@ -1910,7 +3605,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="73" t="s">
         <v>62</v>
       </c>
@@ -1921,7 +3616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="73"/>
       <c r="B20" t="s">
         <v>19</v>
@@ -1930,13 +3625,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="73"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="73" t="s">
         <v>67</v>
       </c>
@@ -1944,25 +3639,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="73"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="73"/>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="73"/>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="73" t="s">
         <v>68</v>
       </c>
@@ -1970,37 +3665,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="73"/>
       <c r="B27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="73"/>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="73"/>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="73"/>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="73"/>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
       <c r="B32" t="s">
         <v>30</v>
@@ -2026,45 +3721,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2072,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2092,15 +3787,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -2108,17 +3803,17 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="70" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -2126,17 +3821,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -2144,35 +3839,35 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -2182,7 +3877,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -2190,14 +3885,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="70" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="J9">
         <v>110000000</v>
@@ -2207,7 +3902,7 @@
         <v>0.22299256015731109</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
         <v>34</v>
       </c>
@@ -2215,20 +3910,20 @@
         <v>7</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D10" s="70"/>
       <c r="E10" s="70" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="J10">
         <v>49329000000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="72" t="s">
         <v>34</v>
       </c>
@@ -2238,13 +3933,13 @@
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
       <c r="E11" s="70" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>34</v>
       </c>
@@ -2254,13 +3949,13 @@
       <c r="C12" s="70"/>
       <c r="D12" s="70"/>
       <c r="E12" s="70" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
         <v>62</v>
       </c>
@@ -2271,7 +3966,7 @@
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>62</v>
       </c>
@@ -2282,7 +3977,7 @@
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
         <v>62</v>
       </c>
@@ -2290,14 +3985,14 @@
         <v>19</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E15" s="70"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="72" t="s">
         <v>62</v>
       </c>
@@ -2305,14 +4000,14 @@
         <v>20</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E16" s="70"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>67</v>
       </c>
@@ -2322,7 +4017,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="s">
         <v>67</v>
       </c>
@@ -2332,7 +4027,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>67</v>
       </c>
@@ -2343,7 +4038,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
         <v>67</v>
       </c>
@@ -2354,7 +4049,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="72" t="s">
         <v>68</v>
       </c>
@@ -2362,17 +4057,17 @@
         <v>27</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E21" s="70"/>
       <c r="F21" s="70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="s">
         <v>68</v>
       </c>
@@ -2380,16 +4075,16 @@
         <v>25</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D22" s="70" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
         <v>68</v>
       </c>
@@ -2397,14 +4092,14 @@
         <v>69</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E23" s="70"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
         <v>68</v>
       </c>
@@ -2412,16 +4107,16 @@
         <v>26</v>
       </c>
       <c r="C24" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
         <v>68</v>
       </c>
@@ -2429,12 +4124,12 @@
         <v>28</v>
       </c>
       <c r="C25" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D25" s="70"/>
       <c r="E25" s="70"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="72" t="s">
         <v>68</v>
       </c>
@@ -2442,12 +4137,12 @@
         <v>29</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
         <v>68</v>
       </c>
@@ -2455,12 +4150,12 @@
         <v>30</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="71" t="s">
         <v>48</v>
       </c>
@@ -2468,17 +4163,17 @@
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="70" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="71" t="s">
         <v>48</v>
       </c>
@@ -2486,17 +4181,17 @@
         <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="70" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="71" t="s">
         <v>48</v>
       </c>
@@ -2504,16 +4199,16 @@
         <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
         <v>48</v>
       </c>
@@ -2521,14 +4216,14 @@
         <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="70" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="71" t="s">
         <v>48</v>
       </c>
@@ -2536,17 +4231,17 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="70" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="71" t="s">
         <v>48</v>
       </c>
@@ -2556,7 +4251,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="70"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="71" t="s">
         <v>48</v>
       </c>
@@ -2566,1756 +4261,24 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="70"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <sortState ref="A2:F34">
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A1:F1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F1">
     <sortCondition ref="A1"/>
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AL36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B43" sqref="B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.83984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15625" style="5"/>
-    <col min="10" max="10" width="13.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.15625" style="8"/>
-    <col min="12" max="12" width="12.20703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="8" customWidth="1"/>
-    <col min="14" max="14" width="13.15625" customWidth="1"/>
-    <col min="15" max="15" width="16.20703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.15625" style="5"/>
-    <col min="20" max="20" width="9.15625" style="5"/>
-    <col min="21" max="21" width="9.15625" style="29"/>
-    <col min="22" max="22" width="15.68359375" style="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.20703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.15625" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.83984375" style="48" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.15625" style="52"/>
-    <col min="29" max="29" width="14" style="57" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.15625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.68359375" style="61" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.3671875" style="8" customWidth="1"/>
-    <col min="34" max="34" width="13.734375" style="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="AF1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG1" s="8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2010</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" t="s">
-        <v>158</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA2" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD2" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE2" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="F3" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>147</v>
-      </c>
-      <c r="S3" t="s">
-        <v>153</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="W3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA3" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB3" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD3" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE3" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF3" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="73"/>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="F4" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="76"/>
-      <c r="H4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="W4" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA4" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB4" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD4" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE4" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF4" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AG4" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH4" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="73"/>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2.92</v>
-      </c>
-      <c r="H5">
-        <v>3.33</v>
-      </c>
-      <c r="K5" s="8">
-        <v>2.82</v>
-      </c>
-      <c r="M5" s="8">
-        <v>22.02</v>
-      </c>
-      <c r="O5" s="39">
-        <v>108.03</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5">
-        <v>25.07</v>
-      </c>
-      <c r="S5">
-        <v>80.95</v>
-      </c>
-      <c r="U5" s="29">
-        <v>56.66</v>
-      </c>
-      <c r="W5">
-        <v>7.59</v>
-      </c>
-      <c r="Y5">
-        <v>39.74</v>
-      </c>
-      <c r="AA5" s="48">
-        <v>7.39</v>
-      </c>
-      <c r="AB5" s="56">
-        <v>7.82</v>
-      </c>
-      <c r="AD5" s="56">
-        <v>1.28</v>
-      </c>
-      <c r="AE5" s="61">
-        <v>41.42</v>
-      </c>
-      <c r="AF5" s="14">
-        <v>6.77</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>11.64</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>159.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="73"/>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="W6" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD6" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE6" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF6" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="73"/>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" s="39">
-        <v>13.35</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="W7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA7" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD7" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE7" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF7" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="73"/>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="O8" s="39">
-        <f>88.60342*8967</f>
-        <v>794506.86713999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="73"/>
-      <c r="B9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="19">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="H9" s="18">
-        <v>5282</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="M9" s="20">
-        <v>147.30000000000001</v>
-      </c>
-      <c r="O9" s="41">
-        <v>1783</v>
-      </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="18">
-        <v>758</v>
-      </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="18">
-        <v>4267</v>
-      </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="32">
-        <v>15440</v>
-      </c>
-      <c r="V9" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="W9" s="18">
-        <v>824</v>
-      </c>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="18">
-        <v>423</v>
-      </c>
-      <c r="Z9" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA9" s="49">
-        <v>54124</v>
-      </c>
-      <c r="AB9" s="53">
-        <v>247</v>
-      </c>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="18">
-        <v>213</v>
-      </c>
-      <c r="AE9" s="62">
-        <v>48017</v>
-      </c>
-      <c r="AF9" s="18">
-        <v>37</v>
-      </c>
-      <c r="AG9" s="20">
-        <v>3970</v>
-      </c>
-      <c r="AH9" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <f>156701/8036599*100</f>
-        <v>1.9498422155939346</v>
-      </c>
-      <c r="D10" s="3">
-        <f>-28472/2077875*100</f>
-        <v>-1.3702460446369489</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10">
-        <v>7.5330000000000004</v>
-      </c>
-      <c r="G10" s="5">
-        <v>12.43</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.2462</v>
-      </c>
-      <c r="K10" s="8">
-        <v>-3.85</v>
-      </c>
-      <c r="M10" s="11">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="O10" s="42">
-        <v>0.16289999999999999</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0.21360000000000001</v>
-      </c>
-      <c r="S10">
-        <v>10.44</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="U10" s="29">
-        <v>6.63</v>
-      </c>
-      <c r="W10">
-        <v>5.19</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y10">
-        <v>44.85</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA10" s="48">
-        <v>9.89</v>
-      </c>
-      <c r="AB10" s="56">
-        <v>32.9</v>
-      </c>
-      <c r="AD10" s="56">
-        <v>9.67</v>
-      </c>
-      <c r="AE10" s="61">
-        <v>18.78</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>10.85</v>
-      </c>
-      <c r="AG10" s="8">
-        <v>92.13</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="22" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="73"/>
-      <c r="B11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="22">
-        <v>2099839</v>
-      </c>
-      <c r="D11" s="22">
-        <v>2374346</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22">
-        <v>468000000</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="22">
-        <v>4048</v>
-      </c>
-      <c r="K11" s="24">
-        <v>10902</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" s="43">
-        <v>1.423</v>
-      </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="22">
-        <v>47</v>
-      </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="22">
-        <v>72</v>
-      </c>
-      <c r="T11" s="23"/>
-      <c r="U11" s="34">
-        <v>1791</v>
-      </c>
-      <c r="V11" s="35"/>
-      <c r="W11" s="22">
-        <v>34</v>
-      </c>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="22">
-        <v>100</v>
-      </c>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="50">
-        <v>96524</v>
-      </c>
-      <c r="AB11" s="54">
-        <v>44</v>
-      </c>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="22">
-        <v>17</v>
-      </c>
-      <c r="AE11" s="63">
-        <v>8442</v>
-      </c>
-      <c r="AF11" s="22">
-        <v>12</v>
-      </c>
-      <c r="AG11" s="24">
-        <v>552</v>
-      </c>
-      <c r="AH11" s="24">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="73"/>
-      <c r="B12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1493552</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2145881</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18">
-        <v>424000000</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="18">
-        <f>859+69</f>
-        <v>928</v>
-      </c>
-      <c r="K12" s="20">
-        <f>1352+3969</f>
-        <v>5321</v>
-      </c>
-      <c r="M12" s="20">
-        <f>(107750+323383)/1000</f>
-        <v>431.13299999999998</v>
-      </c>
-      <c r="O12" s="41">
-        <v>293</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>58</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="S12" s="18">
-        <v>286</v>
-      </c>
-      <c r="T12" s="19"/>
-      <c r="U12" s="32">
-        <v>2629</v>
-      </c>
-      <c r="V12" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="W12" s="18">
-        <v>13</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y12" s="18">
-        <v>133</v>
-      </c>
-      <c r="Z12" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA12" s="49">
-        <v>197372</v>
-      </c>
-      <c r="AB12" s="53">
-        <v>58</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>36</v>
-      </c>
-      <c r="AE12" s="62">
-        <v>17874</v>
-      </c>
-      <c r="AF12" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG12" s="20">
-        <v>845</v>
-      </c>
-      <c r="AH12" s="20">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="26">
-        <v>1.39</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26">
-        <f>H9/284</f>
-        <v>18.598591549295776</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="M13" s="28">
-        <f>M9/10.56</f>
-        <v>13.948863636363637</v>
-      </c>
-      <c r="O13" s="44">
-        <f>O9/123.54</f>
-        <v>14.43257244617128</v>
-      </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="26">
-        <f>Q9/51</f>
-        <v>14.862745098039216</v>
-      </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="26">
-        <f>S9/55</f>
-        <v>77.581818181818178</v>
-      </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="36">
-        <f>U9/159</f>
-        <v>97.106918238993714</v>
-      </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="26">
-        <f>W9/14</f>
-        <v>58.857142857142854</v>
-      </c>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="26">
-        <f>Y9/50</f>
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="51">
-        <f>AA9/9085</f>
-        <v>5.9575123830489822</v>
-      </c>
-      <c r="AB13" s="55">
-        <f>AB9/75</f>
-        <v>3.2933333333333334</v>
-      </c>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="26">
-        <f>AD9/35</f>
-        <v>6.0857142857142854</v>
-      </c>
-      <c r="AE13" s="64">
-        <f>AE9/8584</f>
-        <v>5.5937791239515375</v>
-      </c>
-      <c r="AF13" s="26">
-        <f>AF9/8.15</f>
-        <v>4.5398773006134965</v>
-      </c>
-      <c r="AG13" s="28">
-        <f>AG9/947.51</f>
-        <v>4.1899293938850253</v>
-      </c>
-      <c r="AH13" s="28">
-        <f>1529/121.76</f>
-        <v>12.557490144546648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="73"/>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G14" s="5">
-        <f>(0.14-0.58-0.73+0.39+1.98)/5</f>
-        <v>0.24000000000000005</v>
-      </c>
-      <c r="H14">
-        <v>0.69</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="8">
-        <v>1.95</v>
-      </c>
-      <c r="N14" t="s">
-        <v>126</v>
-      </c>
-      <c r="O14" s="39">
-        <v>3.97</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q14">
-        <v>0.63</v>
-      </c>
-      <c r="S14">
-        <v>-4.96</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="U14" s="29">
-        <v>7.22</v>
-      </c>
-      <c r="V14" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="W14" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y14">
-        <v>-12.24</v>
-      </c>
-      <c r="AA14" s="48">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AB14" s="52">
-        <v>-0.09</v>
-      </c>
-      <c r="AD14" s="56">
-        <v>-0.5</v>
-      </c>
-      <c r="AE14" s="61">
-        <v>1.72</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>0.62</v>
-      </c>
-      <c r="AG14" s="8">
-        <v>7.28</v>
-      </c>
-      <c r="AH14" s="8">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="73"/>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H15">
-        <v>4.46</v>
-      </c>
-      <c r="J15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="8">
-        <v>-0.31</v>
-      </c>
-      <c r="L15" t="s">
-        <v>114</v>
-      </c>
-      <c r="M15" s="13">
-        <v>1.23</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="O15" s="45">
-        <v>2.33</v>
-      </c>
-      <c r="P15" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>3.19</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15">
-        <v>5.86</v>
-      </c>
-      <c r="U15" s="29">
-        <v>6.42</v>
-      </c>
-      <c r="V15" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="W15">
-        <v>3.14</v>
-      </c>
-      <c r="Y15">
-        <v>3.8</v>
-      </c>
-      <c r="AA15" s="48">
-        <v>0.59</v>
-      </c>
-      <c r="AB15" s="56">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AD15" s="56">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AE15" s="61">
-        <v>1.97</v>
-      </c>
-      <c r="AF15" s="14">
-        <v>0.46</v>
-      </c>
-      <c r="AG15" s="8">
-        <v>3.74</v>
-      </c>
-      <c r="AH15" s="8">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="73"/>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="11">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="M16" s="15">
-        <v>3.09E-2</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="47">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" t="s">
-        <v>92</v>
-      </c>
-      <c r="U16" s="29">
-        <v>1.43</v>
-      </c>
-      <c r="W16" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y16">
-        <v>0.45</v>
-      </c>
-      <c r="AA16" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE16" s="61">
-        <v>2.56</v>
-      </c>
-      <c r="AF16">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="AG16" s="8">
-        <v>10.43</v>
-      </c>
-      <c r="AH16" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="73"/>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3.37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17">
-        <v>8.17</v>
-      </c>
-      <c r="G17" s="5">
-        <f>(8.17+7.12+10.45+18.6+13.23)/5</f>
-        <v>11.514000000000001</v>
-      </c>
-      <c r="H17">
-        <v>34.33</v>
-      </c>
-      <c r="K17" s="8">
-        <v>-32.590000000000003</v>
-      </c>
-      <c r="L17" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="8">
-        <v>10.6</v>
-      </c>
-      <c r="N17" t="s">
-        <v>128</v>
-      </c>
-      <c r="O17" s="39">
-        <v>15.99</v>
-      </c>
-      <c r="P17" s="40">
-        <v>14.67</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>64.209999999999994</v>
-      </c>
-      <c r="S17" s="14">
-        <v>21.2</v>
-      </c>
-      <c r="U17" s="31">
-        <v>96.88</v>
-      </c>
-      <c r="W17">
-        <v>63.83</v>
-      </c>
-      <c r="Y17">
-        <v>29.91</v>
-      </c>
-      <c r="AA17" s="48">
-        <v>7.07</v>
-      </c>
-      <c r="AB17" s="56">
-        <v>29.37</v>
-      </c>
-      <c r="AD17" s="56">
-        <v>12.8</v>
-      </c>
-      <c r="AE17" s="61">
-        <v>28</v>
-      </c>
-      <c r="AF17" s="14">
-        <v>16.77</v>
-      </c>
-      <c r="AG17" s="8">
-        <v>27.6</v>
-      </c>
-      <c r="AH17" s="8">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="73"/>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O18" s="39">
-        <v>42.15</v>
-      </c>
-      <c r="S18" s="7">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="U18" s="29">
-        <v>0.92</v>
-      </c>
-      <c r="W18">
-        <v>1.85</v>
-      </c>
-      <c r="AA18" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB18" s="56">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="AD18" s="56">
-        <v>67.2</v>
-      </c>
-      <c r="AE18" s="61">
-        <v>0.54</v>
-      </c>
-      <c r="AF18" s="7">
-        <v>5.11E-2</v>
-      </c>
-      <c r="AH18" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="10"/>
-      <c r="AD19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="73"/>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="73"/>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="73"/>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3">
-        <v>-8.74</v>
-      </c>
-      <c r="H22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="M22" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="U22" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="W22" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA22" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB22" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD22" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE22" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF22" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH22" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="8">
-        <f>((2.82/39.8)-1)*100</f>
-        <v>-92.914572864321613</v>
-      </c>
-      <c r="M23" s="8">
-        <f>((M5/40.5)-1)*100</f>
-        <v>-45.629629629629633</v>
-      </c>
-      <c r="O23" s="39">
-        <f>((O5/31)-1)*100</f>
-        <v>248.48387096774195</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA23" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD23" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE23" s="61">
-        <f>41.43-25.99</f>
-        <v>15.440000000000001</v>
-      </c>
-      <c r="AF23" s="65">
-        <v>1.48</v>
-      </c>
-      <c r="AH23" s="67" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="73"/>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24">
-        <v>828.2</v>
-      </c>
-      <c r="H24">
-        <v>826.45</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="13">
-        <f>((147.901/M9)-1)*100</f>
-        <v>0.40801086218600346</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="45">
-        <f>((2028.22/O9)-1)*100</f>
-        <v>13.753224901850825</v>
-      </c>
-      <c r="U24" s="38"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="73"/>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="73"/>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
-      <c r="F27">
-        <v>2.63</v>
-      </c>
-      <c r="H27">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K27" s="12">
-        <v>-0.94</v>
-      </c>
-      <c r="M27" s="8">
-        <v>18.38</v>
-      </c>
-      <c r="O27" s="39">
-        <v>32.6</v>
-      </c>
-      <c r="Q27">
-        <v>6.56</v>
-      </c>
-      <c r="S27">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="U27" s="29">
-        <v>2.21</v>
-      </c>
-      <c r="W27">
-        <v>2.83</v>
-      </c>
-      <c r="Y27">
-        <v>10.1</v>
-      </c>
-      <c r="AA27" s="48">
-        <v>29.9</v>
-      </c>
-      <c r="AB27" s="56">
-        <v>7.51</v>
-      </c>
-      <c r="AD27" s="56">
-        <v>2.4</v>
-      </c>
-      <c r="AE27" s="61">
-        <v>21.37</v>
-      </c>
-      <c r="AF27" s="14">
-        <v>11.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="73"/>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="3">
-        <v>14.72</v>
-      </c>
-      <c r="F28">
-        <f>(7.65+14.16)/2</f>
-        <v>10.905000000000001</v>
-      </c>
-      <c r="H28" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="M28" s="8">
-        <f>AVERAGE(16.87,9.11)</f>
-        <v>12.99</v>
-      </c>
-      <c r="O28" s="39">
-        <f>AVERAGE(31.44,19.28)</f>
-        <v>25.36</v>
-      </c>
-      <c r="Y28">
-        <v>8.4</v>
-      </c>
-      <c r="AA28" s="48">
-        <v>13.3</v>
-      </c>
-      <c r="AB28" s="52">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AD28" s="56">
-        <v>3.5</v>
-      </c>
-      <c r="AF28" s="14">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="73"/>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="F29">
-        <v>0.21</v>
-      </c>
-      <c r="H29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="M29" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="O29" s="39">
-        <v>5.4</v>
-      </c>
-      <c r="Q29">
-        <v>1.2</v>
-      </c>
-      <c r="S29">
-        <v>1.03</v>
-      </c>
-      <c r="U29" s="29">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="W29">
-        <v>0.22</v>
-      </c>
-      <c r="Y29">
-        <v>4.2</v>
-      </c>
-      <c r="AA29" s="48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AB29" s="56">
-        <v>2.1</v>
-      </c>
-      <c r="AD29" s="56">
-        <v>0.2</v>
-      </c>
-      <c r="AE29" s="61">
-        <v>3.85</v>
-      </c>
-      <c r="AF29" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="AH29" s="8">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="73"/>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F30">
-        <v>0.19</v>
-      </c>
-      <c r="H30">
-        <v>1.3</v>
-      </c>
-      <c r="K30" s="8">
-        <v>0.84</v>
-      </c>
-      <c r="M30" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="O30" s="39">
-        <v>4.7</v>
-      </c>
-      <c r="Q30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S30">
-        <v>1.84</v>
-      </c>
-      <c r="U30" s="29">
-        <v>1.98</v>
-      </c>
-      <c r="W30">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Y30">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="Z30" s="5">
-        <f>Y5/Y30</f>
-        <v>17.278260869565219</v>
-      </c>
-      <c r="AA30" s="48">
-        <v>0.8</v>
-      </c>
-      <c r="AB30" s="56">
-        <v>1.5</v>
-      </c>
-      <c r="AD30" s="56">
-        <v>0.3</v>
-      </c>
-      <c r="AE30" s="61">
-        <v>5.67</v>
-      </c>
-      <c r="AF30" s="14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AH30" s="8">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="73"/>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31">
-        <v>1.45</v>
-      </c>
-      <c r="K31" s="8">
-        <v>1.31</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O31" s="39">
-        <v>1.81</v>
-      </c>
-      <c r="Q31">
-        <v>2.83</v>
-      </c>
-      <c r="S31">
-        <v>3.15</v>
-      </c>
-      <c r="U31" s="29">
-        <v>2.23</v>
-      </c>
-      <c r="W31">
-        <v>2.89</v>
-      </c>
-      <c r="Y31">
-        <v>1.03</v>
-      </c>
-      <c r="AA31" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB31" s="56">
-        <v>2.9</v>
-      </c>
-      <c r="AD31" s="56">
-        <v>2.69</v>
-      </c>
-      <c r="AE31" s="61">
-        <v>1.01</v>
-      </c>
-      <c r="AF31" s="14">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AH31" s="8">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="73"/>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32">
-        <v>1.38</v>
-      </c>
-      <c r="K32" s="8">
-        <v>1.18</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="39">
-        <v>1.74</v>
-      </c>
-      <c r="Q32">
-        <v>2.13</v>
-      </c>
-      <c r="S32">
-        <v>1.74</v>
-      </c>
-      <c r="U32" s="29">
-        <v>1.51</v>
-      </c>
-      <c r="W32">
-        <v>2.33</v>
-      </c>
-      <c r="Y32">
-        <v>0.93</v>
-      </c>
-      <c r="AA32" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB32" s="56">
-        <v>2.9</v>
-      </c>
-      <c r="AD32" s="56">
-        <v>1.8</v>
-      </c>
-      <c r="AE32" s="61">
-        <v>0.75</v>
-      </c>
-      <c r="AF32" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="AH32" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="73"/>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="L35" s="10"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10">
-        <v>1.43</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1.82</v>
-      </c>
-      <c r="E36" s="10">
-        <v>2.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A22"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A37:E1048576 P25:U1048576 P20:S23 O20:O1048576 O2:O18 Q2:S18 P2:P17 T2:U23 F1:N1048576 A2:E35 V1:X1048576 Z1:XFD1048576 Y2:Y4 Y6:Y1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>